--- a/src/resources/excel-3.xlsx
+++ b/src/resources/excel-3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="27870" windowHeight="12885"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="27870" windowHeight="12885"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet-1" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Name</t>
-  </si>
   <si>
     <t>Last Name</t>
   </si>
@@ -40,6 +37,9 @@
   </si>
   <si>
     <t>Petrenko</t>
+  </si>
+  <si>
+    <t>First Name</t>
   </si>
 </sst>
 </file>
@@ -849,28 +849,33 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>34</v>
@@ -878,10 +883,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>24</v>
